--- a/data/processed/unmatched_columns/unmatched_铁门关职业技术学院.xlsx
+++ b/data/processed/unmatched_columns/unmatched_铁门关职业技术学院.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>学费
-（元/年）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>_源文件</t>
         </is>
       </c>
@@ -459,12 +453,6 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>学费
-（元/年）</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>铁门关职业技术学院.xlsx</t>
         </is>
       </c>
@@ -477,11 +465,6 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>铁门关职业技术学院.xlsx</t>
         </is>
       </c>
@@ -494,11 +477,6 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>铁门关职业技术学院.xlsx</t>
         </is>
       </c>
@@ -511,11 +489,6 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>铁门关职业技术学院.xlsx</t>
         </is>
       </c>
@@ -528,11 +501,6 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>铁门关职业技术学院.xlsx</t>
         </is>
       </c>
@@ -544,11 +512,6 @@
         </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>铁门关职业技术学院.xlsx</t>
         </is>
